--- a/uploads/holiday_user/年假系统角色表 copy.xlsx
+++ b/uploads/holiday_user/年假系统角色表 copy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Desktop/年假倒入数据模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>工会</t>
   </si>
   <si>
-    <t>光纤到户办公室</t>
-  </si>
-  <si>
     <t>城区分公司</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>人力资源部</t>
+  </si>
+  <si>
+    <t>通信建设办公室</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,828 +883,828 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/holiday_user/年假系统角色表 copy.xlsx
+++ b/uploads/holiday_user/年假系统角色表 copy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Desktop/年假倒入数据模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Documents/MAMP/htdocs/human_resources/年假倒入数据模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t>市场部</t>
   </si>
@@ -542,13 +542,87 @@
   </si>
   <si>
     <t>通信建设办公室</t>
+  </si>
+  <si>
+    <t>442000197907028382</t>
+  </si>
+  <si>
+    <t>龙容妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑韵绮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志玲</t>
+  </si>
+  <si>
+    <t>叶剑贞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈圣守</t>
+  </si>
+  <si>
+    <t>麦文钊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业中心/小榄片区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业中心/古镇片区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业中心/城区片区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业中心/三角片区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业中心/火炬开发区片区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业中心/三乡片区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区经理</t>
+  </si>
+  <si>
+    <t>大区负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>442000197607112347</t>
+  </si>
+  <si>
+    <t>442000198305306116</t>
+  </si>
+  <si>
+    <t>442000198211032580</t>
+  </si>
+  <si>
+    <t>441721198005114031</t>
+  </si>
+  <si>
+    <t>442000198710214637</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +636,34 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,16 +683,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="?? 11" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1707,6 +1817,90 @@
         <v>157</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D59"/>
   <phoneticPr fontId="1" type="noConversion"/>
